--- a/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
+++ b/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>public static class Configuration</t>
   </si>
@@ -831,11 +831,37 @@
     <t>public const string ConnectionString = "Server=.\\SQLEXPRESS;Database=Hospital;Integrated Security=true;";
 public const string ConnectionString = @"Server=.\SQLEXPRESS;Database=Hospital;Integrated Security=true;";</t>
   </si>
+  <si>
+    <t>override Equals</t>
+  </si>
+  <si>
+    <t>За сравняване на обекти се правят двата OVERRIDE-a: Equals и GetHashCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public override bool Equals(object obj)
+        {
+            var other = (CategoryProduct)obj;
+            return this.CategoryId == other.CategoryId &amp;&amp;
+                this.ProductId == other.ProductId;
+        }</t>
+  </si>
+  <si>
+    <t>override GetHashCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public override int GetHashCode()
+        {
+            int hash = 13;
+            hash = (hash * 7) + CategoryId.GetHashCode();
+            hash = (hash * 7) + ProductId.GetHashCode();
+            return hash;
+        }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1061,6 +1087,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1069,21 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,7 +1384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1391,13 +1417,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1408,7 +1434,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1455,13 +1481,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1469,7 +1495,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1486,10 +1512,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1497,10 +1523,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1563,10 +1589,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1593,10 +1619,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1607,10 +1633,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1618,22 +1644,22 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1692,10 +1718,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -1706,10 +1732,10 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -1728,7 +1754,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -1736,7 +1762,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="15" t="s">
         <v>80</v>
       </c>
@@ -1751,12 +1777,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
@@ -1766,6 +1786,12 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1774,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1785,6 +1811,7 @@
     <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="105" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -1957,7 +1984,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -1966,6 +1993,34 @@
       </c>
       <c r="C17" s="21" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
+++ b/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,6 +1087,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,15 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,7 +1384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,13 +1417,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1481,13 +1481,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1512,10 +1512,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1523,10 +1523,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1589,10 +1589,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1619,10 +1619,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1633,10 +1633,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1644,22 +1644,22 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1718,10 +1718,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -1732,10 +1732,10 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>80</v>
       </c>
@@ -1777,6 +1777,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
@@ -1786,12 +1792,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
+++ b/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>public static class Configuration</t>
   </si>
@@ -857,11 +857,14 @@
             return hash;
         }</t>
   </si>
+  <si>
+    <t>DateTime.ParseExact(animalDto.Passport.RegistrationDate, @"dd-MM-yyyy", CultureInfo.InvariantCulture)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,6 +1090,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1095,21 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1394,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,13 +1420,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1434,7 +1437,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1481,13 +1484,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1512,10 +1515,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1523,10 +1526,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1589,10 +1592,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1619,10 +1622,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1633,10 +1636,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1644,22 +1647,22 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1718,10 +1721,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -1732,10 +1735,10 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -1754,7 +1757,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -1762,7 +1765,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="15" t="s">
         <v>80</v>
       </c>
@@ -1777,12 +1780,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
@@ -1792,6 +1789,12 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1800,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1989,37 +1992,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>120</v>
       </c>
     </row>

--- a/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
+++ b/C#/DB/Entity Framework Core/Exam/ExamHints.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>public static class Configuration</t>
   </si>
@@ -860,11 +860,14 @@
   <si>
     <t>DateTime.ParseExact(animalDto.Passport.RegistrationDate, @"dd-MM-yyyy", CultureInfo.InvariantCulture)</t>
   </si>
+  <si>
+    <t>Enum.TryParse(officerDto.Weapon,out Weapon weapon)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1090,6 +1093,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,15 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,7 +1390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1398,7 +1401,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,13 +1423,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1437,7 +1440,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1484,13 +1487,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1498,7 +1501,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1515,10 +1518,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1526,10 +1529,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1592,10 +1595,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1622,10 +1625,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1636,10 +1639,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1647,22 +1650,22 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1721,10 +1724,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -1735,10 +1738,10 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -1757,7 +1760,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -1765,7 +1768,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>80</v>
       </c>
@@ -1780,6 +1783,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
@@ -1789,12 +1798,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1803,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2032,6 +2035,14 @@
       </c>
       <c r="D20" s="10" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
